--- a/input/xlwings-example3.xlsx
+++ b/input/xlwings-example3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerrychien/Documents/GitHub/WhaleFall/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EE5F4A-7961-F642-B18A-03DA7EDCE5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A03E728-81BC-0947-BB6E-55164D75D23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16920" xr2:uid="{398FE703-53C5-C145-8B72-162994A01611}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16920" xr2:uid="{FF36C61B-38BA-D642-B877-1A308C6F41D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C403837-B9ED-5D45-9D93-0669E56EB01A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30162CE4-8063-A241-A155-4B246E81F4AC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
